--- a/Bhajans.xlsx
+++ b/Bhajans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!_2025.10.06_Verse_Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BD311F5-3EF0-4A8E-A7D1-F0BB4D168122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E5EFB4-71A5-4551-BF0E-28ED21E874EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7995" yWindow="1800" windowWidth="8468" windowHeight="7388" xr2:uid="{A9C9C553-A71B-467E-B8C8-43947DEA655A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="25996" windowHeight="10276" xr2:uid="{A9C9C553-A71B-467E-B8C8-43947DEA655A}"/>
   </bookViews>
   <sheets>
     <sheet name="Lapa1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7949" uniqueCount="4938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7947" uniqueCount="4938">
   <si>
     <t>Category</t>
   </si>
@@ -17643,10 +17643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81856068-A8A7-4523-8ECD-2735CA2F3D2A}">
-  <dimension ref="A1:H1152"/>
+  <dimension ref="A1:H1151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1139" workbookViewId="0">
+      <selection activeCell="A1152" sqref="A1152:XFD1155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -46625,7 +46625,7 @@
     </row>
     <row r="1124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1124" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1124" s="2" t="s">
         <v>4829</v>
@@ -46648,7 +46648,7 @@
     </row>
     <row r="1125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1125" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1125" s="2" t="s">
         <v>4829</v>
@@ -46671,7 +46671,7 @@
     </row>
     <row r="1126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1126" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1126" s="2" t="s">
         <v>4829</v>
@@ -46691,7 +46691,7 @@
     </row>
     <row r="1127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1127" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1127" s="2" t="s">
         <v>4829</v>
@@ -46714,7 +46714,7 @@
     </row>
     <row r="1128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1128" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1128" s="2" t="s">
         <v>4829</v>
@@ -46737,7 +46737,7 @@
     </row>
     <row r="1129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1129" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1129" s="2" t="s">
         <v>4829</v>
@@ -46757,7 +46757,7 @@
     </row>
     <row r="1130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1130" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1130" s="2" t="s">
         <v>4829</v>
@@ -46780,7 +46780,7 @@
     </row>
     <row r="1131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1131" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1131" s="2" t="s">
         <v>4829</v>
@@ -46803,7 +46803,7 @@
     </row>
     <row r="1132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1132" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1132" s="2" t="s">
         <v>4829</v>
@@ -46826,7 +46826,7 @@
     </row>
     <row r="1133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1133" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1133" s="2" t="s">
         <v>4829</v>
@@ -46849,7 +46849,7 @@
     </row>
     <row r="1134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1134" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1134" s="2" t="s">
         <v>4829</v>
@@ -46872,7 +46872,7 @@
     </row>
     <row r="1135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1135" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1135" s="2" t="s">
         <v>4829</v>
@@ -46895,7 +46895,7 @@
     </row>
     <row r="1136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1136" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1136" s="2" t="s">
         <v>4829</v>
@@ -46918,7 +46918,7 @@
     </row>
     <row r="1137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1137" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1137" s="2" t="s">
         <v>4829</v>
@@ -46941,7 +46941,7 @@
     </row>
     <row r="1138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1138" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1138" s="2" t="s">
         <v>4829</v>
@@ -46964,7 +46964,7 @@
     </row>
     <row r="1139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1139" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1139" s="2" t="s">
         <v>4829</v>
@@ -46987,7 +46987,7 @@
     </row>
     <row r="1140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1140" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1140" s="2" t="s">
         <v>4829</v>
@@ -47010,7 +47010,7 @@
     </row>
     <row r="1141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1141" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1141" s="2" t="s">
         <v>4829</v>
@@ -47033,7 +47033,7 @@
     </row>
     <row r="1142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1142" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1142" s="2" t="s">
         <v>4829</v>
@@ -47056,7 +47056,7 @@
     </row>
     <row r="1143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1143" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1143" s="2" t="s">
         <v>4829</v>
@@ -47079,7 +47079,7 @@
     </row>
     <row r="1144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1144" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1144" s="2" t="s">
         <v>4829</v>
@@ -47102,7 +47102,7 @@
     </row>
     <row r="1145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1145" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1145" s="2" t="s">
         <v>4829</v>
@@ -47125,7 +47125,7 @@
     </row>
     <row r="1146" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1146" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1146" s="2" t="s">
         <v>4829</v>
@@ -47148,7 +47148,7 @@
     </row>
     <row r="1147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1147" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1147" s="2" t="s">
         <v>4829</v>
@@ -47171,7 +47171,7 @@
     </row>
     <row r="1148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1148" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1148" s="2" t="s">
         <v>4829</v>
@@ -47194,7 +47194,7 @@
     </row>
     <row r="1149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1149" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1149" s="2" t="s">
         <v>4829</v>
@@ -47217,7 +47217,7 @@
     </row>
     <row r="1150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1150" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1150" s="2" t="s">
         <v>4829</v>
@@ -47237,7 +47237,7 @@
     </row>
     <row r="1151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1151" s="2" t="s">
-        <v>4829</v>
+        <v>8</v>
       </c>
       <c r="B1151" s="2" t="s">
         <v>4829</v>
@@ -47253,14 +47253,6 @@
       </c>
       <c r="H1151" s="2" t="s">
         <v>4937</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1152" s="2" t="s">
-        <v>4829</v>
-      </c>
-      <c r="B1152" s="2" t="s">
-        <v>4829</v>
       </c>
     </row>
   </sheetData>

--- a/Bhajans.xlsx
+++ b/Bhajans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!_2025.10.06_Verse_Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E5EFB4-71A5-4551-BF0E-28ED21E874EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4A10A8-18D1-48D7-BDF1-4831B2538FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="25996" windowHeight="10276" xr2:uid="{A9C9C553-A71B-467E-B8C8-43947DEA655A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7947" uniqueCount="4938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7947" uniqueCount="4939">
   <si>
     <t>Category</t>
   </si>
@@ -17200,6 +17200,9 @@
   </si>
   <si>
     <t>Harē Krišna, Harē Krišna, Krišna Krišna, Harē Harē, Harē Rāma, Harē Rāma, Rāma Rāma, Harē Harē.</t>
+  </si>
+  <si>
+    <t>mangalacaran</t>
   </si>
 </sst>
 </file>
@@ -17645,8 +17648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81856068-A8A7-4523-8ECD-2735CA2F3D2A}">
   <dimension ref="A1:H1151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1139" workbookViewId="0">
-      <selection activeCell="A1152" sqref="A1152:XFD1155"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17693,7 +17696,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>4938</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>

--- a/Bhajans.xlsx
+++ b/Bhajans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!_2025.10.06_Verse_Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4A10A8-18D1-48D7-BDF1-4831B2538FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9CA32D-9F16-4879-A378-4C5491825DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="25996" windowHeight="10276" xr2:uid="{A9C9C553-A71B-467E-B8C8-43947DEA655A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7947" uniqueCount="4939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7947" uniqueCount="4940">
   <si>
     <t>Category</t>
   </si>
@@ -17202,7 +17202,10 @@
     <t>Harē Krišna, Harē Krišna, Krišna Krišna, Harē Harē, Harē Rāma, Harē Rāma, Rāma Rāma, Harē Harē.</t>
   </si>
   <si>
-    <t>mangalacaran</t>
+    <t>dziesma</t>
+  </si>
+  <si>
+    <t>laba</t>
   </si>
 </sst>
 </file>
@@ -17648,8 +17651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81856068-A8A7-4523-8ECD-2735CA2F3D2A}">
   <dimension ref="A1:H1151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A1116" workbookViewId="0">
+      <selection activeCell="B1129" sqref="B1129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17696,7 +17699,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4938</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -46628,10 +46631,10 @@
     </row>
     <row r="1124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1124" s="2" t="s">
-        <v>8</v>
+        <v>4939</v>
       </c>
       <c r="B1124" s="2" t="s">
-        <v>4829</v>
+        <v>4938</v>
       </c>
       <c r="D1124" s="2">
         <v>1</v>

--- a/Bhajans.xlsx
+++ b/Bhajans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!_2025.10.06_Verse_Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CED635-DBB9-40C9-9044-6E7D9D3B800F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46226AE5-3260-4BFE-92B8-36D4D61A6EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="25996" windowHeight="10276" xr2:uid="{A9C9C553-A71B-467E-B8C8-43947DEA655A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="127">
   <si>
     <t>Category</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>laba</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -900,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81856068-A8A7-4523-8ECD-2735CA2F3D2A}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1122" sqref="A2:XFD1122"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -950,6 +953,9 @@
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
       <c r="D2" s="2">
         <v>3</v>
       </c>
@@ -973,6 +979,9 @@
       <c r="B3" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
@@ -996,6 +1005,9 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
@@ -1019,6 +1031,9 @@
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
@@ -1039,6 +1054,9 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
       <c r="D6" s="2">
         <v>4</v>
       </c>
@@ -1062,6 +1080,9 @@
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
       <c r="D7" s="2">
         <v>5</v>
       </c>
@@ -1085,6 +1106,9 @@
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
       <c r="D8" s="2">
         <v>6</v>
       </c>
@@ -1105,6 +1129,9 @@
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
       <c r="D9" s="2">
         <v>7</v>
       </c>
@@ -1128,6 +1155,9 @@
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
       <c r="D10" s="2">
         <v>8</v>
       </c>
@@ -1151,6 +1181,9 @@
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" s="2">
         <v>9</v>
       </c>
@@ -1174,6 +1207,9 @@
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
       <c r="D12" s="2">
         <v>10</v>
       </c>
@@ -1197,6 +1233,9 @@
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" s="2">
         <v>11</v>
       </c>
@@ -1220,6 +1259,9 @@
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
       <c r="D14" s="2">
         <v>12</v>
       </c>
@@ -1243,6 +1285,9 @@
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
       <c r="D15" s="2">
         <v>13</v>
       </c>
@@ -1266,6 +1311,9 @@
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
       <c r="D16" s="2">
         <v>14</v>
       </c>
@@ -1289,6 +1337,9 @@
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
       <c r="D17" s="2">
         <v>15</v>
       </c>
@@ -1312,6 +1363,9 @@
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C18" t="s">
+        <v>126</v>
+      </c>
       <c r="D18" s="2">
         <v>16</v>
       </c>
@@ -1335,6 +1389,9 @@
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
       <c r="D19" s="2">
         <v>17</v>
       </c>
@@ -1358,6 +1415,9 @@
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
       <c r="D20" s="2">
         <v>18</v>
       </c>
@@ -1381,6 +1441,9 @@
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C21" t="s">
+        <v>126</v>
+      </c>
       <c r="D21" s="2">
         <v>19</v>
       </c>
@@ -1404,6 +1467,9 @@
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C22" t="s">
+        <v>126</v>
+      </c>
       <c r="D22" s="2">
         <v>20</v>
       </c>
@@ -1427,6 +1493,9 @@
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
       <c r="D23" s="2">
         <v>21</v>
       </c>
@@ -1450,6 +1519,9 @@
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
       <c r="D24" s="2">
         <v>22</v>
       </c>
@@ -1473,6 +1545,9 @@
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
       <c r="D25" s="2">
         <v>23</v>
       </c>
@@ -1496,6 +1571,9 @@
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
       <c r="D26" s="2">
         <v>24</v>
       </c>
@@ -1519,6 +1597,9 @@
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
       <c r="D27" s="2">
         <v>25</v>
       </c>
@@ -1542,6 +1623,9 @@
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
       <c r="D28" s="2">
         <v>26</v>
       </c>
@@ -1565,6 +1649,9 @@
       <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C29" t="s">
+        <v>126</v>
+      </c>
       <c r="D29" s="2">
         <v>27</v>
       </c>
@@ -1584,6 +1671,9 @@
       </c>
       <c r="B30" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
       </c>
       <c r="D30" s="2">
         <v>28</v>
